--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>1.215647</v>
       </c>
       <c r="I2">
-        <v>0.135584276936351</v>
+        <v>0.07384808039774364</v>
       </c>
       <c r="J2">
-        <v>0.1355842769363511</v>
+        <v>0.07512767069593985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51056</v>
+        <v>1.332201</v>
       </c>
       <c r="N2">
-        <v>4.53168</v>
+        <v>3.996603</v>
       </c>
       <c r="O2">
-        <v>0.4569399709189402</v>
+        <v>0.4977000102551081</v>
       </c>
       <c r="P2">
-        <v>0.4674407903484196</v>
+        <v>0.5003087024806611</v>
       </c>
       <c r="Q2">
-        <v>0.61210257744</v>
+        <v>0.5398287163490001</v>
       </c>
       <c r="R2">
-        <v>5.508923196960001</v>
+        <v>4.858458447141001</v>
       </c>
       <c r="S2">
-        <v>0.06195387556036178</v>
+        <v>0.03675419037127706</v>
       </c>
       <c r="T2">
-        <v>0.06337762156994693</v>
+        <v>0.03758702744628005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.215647</v>
       </c>
       <c r="I3">
-        <v>0.135584276936351</v>
+        <v>0.07384808039774364</v>
       </c>
       <c r="J3">
-        <v>0.1355842769363511</v>
+        <v>0.07512767069593985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2.730397</v>
       </c>
       <c r="O3">
-        <v>0.2753123622535487</v>
+        <v>0.3400184143635273</v>
       </c>
       <c r="P3">
-        <v>0.281639244528509</v>
+        <v>0.341800619257677</v>
       </c>
       <c r="Q3">
         <v>0.3687998802065556</v>
@@ -638,10 +638,10 @@
         <v>3.319198921859</v>
       </c>
       <c r="S3">
-        <v>0.03732802756778614</v>
+        <v>0.02510970720063107</v>
       </c>
       <c r="T3">
-        <v>0.03818585332629806</v>
+        <v>0.02567868436725907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,40 +670,40 @@
         <v>1.215647</v>
       </c>
       <c r="I4">
-        <v>0.135584276936351</v>
+        <v>0.07384808039774364</v>
       </c>
       <c r="J4">
-        <v>0.1355842769363511</v>
+        <v>0.07512767069593985</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.250344</v>
+        <v>0.07237833333333334</v>
       </c>
       <c r="N4">
-        <v>0.751032</v>
+        <v>0.217135</v>
       </c>
       <c r="O4">
-        <v>0.07572832597164705</v>
+        <v>0.02703998664034003</v>
       </c>
       <c r="P4">
-        <v>0.07746861906775286</v>
+        <v>0.02718171660110807</v>
       </c>
       <c r="Q4">
-        <v>0.101443310856</v>
+        <v>0.02932883459388889</v>
       </c>
       <c r="R4">
-        <v>0.9129897977040001</v>
+        <v>0.263959511345</v>
       </c>
       <c r="S4">
-        <v>0.01026757032046606</v>
+        <v>0.001996851107369745</v>
       </c>
       <c r="T4">
-        <v>0.01050352670155889</v>
+        <v>0.002042099053758409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,40 +732,40 @@
         <v>1.215647</v>
       </c>
       <c r="I5">
-        <v>0.135584276936351</v>
+        <v>0.07384808039774364</v>
       </c>
       <c r="J5">
-        <v>0.1355842769363511</v>
+        <v>0.07512767069593985</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2227905</v>
+        <v>0.0418705</v>
       </c>
       <c r="N5">
-        <v>0.445581</v>
+        <v>0.083741</v>
       </c>
       <c r="O5">
-        <v>0.06739347301068223</v>
+        <v>0.01564249559892726</v>
       </c>
       <c r="P5">
-        <v>0.04596148333603414</v>
+        <v>0.01048299044324218</v>
       </c>
       <c r="Q5">
-        <v>0.09027820098450001</v>
+        <v>0.01696658257116667</v>
       </c>
       <c r="R5">
-        <v>0.5416692059070001</v>
+        <v>0.101799495427</v>
       </c>
       <c r="S5">
-        <v>0.009137495308382837</v>
+        <v>0.001155168272610931</v>
       </c>
       <c r="T5">
-        <v>0.006231654485038336</v>
+        <v>0.0007875626539285832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>1.215647</v>
       </c>
       <c r="I6">
-        <v>0.135584276936351</v>
+        <v>0.07384808039774364</v>
       </c>
       <c r="J6">
-        <v>0.1355842769363511</v>
+        <v>0.07512767069593985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4119903333333333</v>
+        <v>0.3201326666666667</v>
       </c>
       <c r="N6">
-        <v>1.235971</v>
+        <v>0.960398</v>
       </c>
       <c r="O6">
-        <v>0.1246258678451818</v>
+        <v>0.1195990931420972</v>
       </c>
       <c r="P6">
-        <v>0.1274898627192844</v>
+        <v>0.1202259712173118</v>
       </c>
       <c r="Q6">
-        <v>0.1669449375818889</v>
+        <v>0.1297227719451111</v>
       </c>
       <c r="R6">
-        <v>1.502504438237</v>
+        <v>1.167504947506</v>
       </c>
       <c r="S6">
-        <v>0.01689730817935421</v>
+        <v>0.008832163445854826</v>
       </c>
       <c r="T6">
-        <v>0.01728562085350883</v>
+        <v>0.009032297174713743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.946511333333333</v>
+        <v>3.477508</v>
       </c>
       <c r="H7">
-        <v>5.839534</v>
+        <v>10.432524</v>
       </c>
       <c r="I7">
-        <v>0.6512984402834356</v>
+        <v>0.6337545941407251</v>
       </c>
       <c r="J7">
-        <v>0.6512984402834355</v>
+        <v>0.6447358711858699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.51056</v>
+        <v>1.332201</v>
       </c>
       <c r="N7">
-        <v>4.53168</v>
+        <v>3.996603</v>
       </c>
       <c r="O7">
-        <v>0.4569399709189402</v>
+        <v>0.4977000102551081</v>
       </c>
       <c r="P7">
-        <v>0.4674407903484196</v>
+        <v>0.5003087024806611</v>
       </c>
       <c r="Q7">
-        <v>2.94032215968</v>
+        <v>4.632739635108001</v>
       </c>
       <c r="R7">
-        <v>26.46289943712</v>
+        <v>41.69465671597201</v>
       </c>
       <c r="S7">
-        <v>0.2976042903626642</v>
+        <v>0.3154196680030608</v>
       </c>
       <c r="T7">
-        <v>0.3044434576787821</v>
+        <v>0.3225669671557412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.946511333333333</v>
+        <v>3.477508</v>
       </c>
       <c r="H8">
-        <v>5.839534</v>
+        <v>10.432524</v>
       </c>
       <c r="I8">
-        <v>0.6512984402834356</v>
+        <v>0.6337545941407251</v>
       </c>
       <c r="J8">
-        <v>0.6512984402834355</v>
+        <v>0.6447358711858699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.730397</v>
       </c>
       <c r="O8">
-        <v>0.2753123622535487</v>
+        <v>0.3400184143635273</v>
       </c>
       <c r="P8">
-        <v>0.281639244528509</v>
+        <v>0.341800619257677</v>
       </c>
       <c r="Q8">
-        <v>1.771582901666444</v>
+        <v>3.164992470225334</v>
       </c>
       <c r="R8">
-        <v>15.944246114998</v>
+        <v>28.484932232028</v>
       </c>
       <c r="S8">
-        <v>0.1793105121264845</v>
+        <v>0.2154882321953301</v>
       </c>
       <c r="T8">
-        <v>0.183431200684023</v>
+        <v>0.2203711200289682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.946511333333333</v>
+        <v>3.477508</v>
       </c>
       <c r="H9">
-        <v>5.839534</v>
+        <v>10.432524</v>
       </c>
       <c r="I9">
-        <v>0.6512984402834356</v>
+        <v>0.6337545941407251</v>
       </c>
       <c r="J9">
-        <v>0.6512984402834355</v>
+        <v>0.6447358711858699</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.250344</v>
+        <v>0.07237833333333334</v>
       </c>
       <c r="N9">
-        <v>0.751032</v>
+        <v>0.217135</v>
       </c>
       <c r="O9">
-        <v>0.07572832597164705</v>
+        <v>0.02703998664034003</v>
       </c>
       <c r="P9">
-        <v>0.07746861906775286</v>
+        <v>0.02718171660110807</v>
       </c>
       <c r="Q9">
-        <v>0.487297433232</v>
+        <v>0.2516962331933333</v>
       </c>
       <c r="R9">
-        <v>4.385676899088</v>
+        <v>2.26526609874</v>
       </c>
       <c r="S9">
-        <v>0.04932174059060931</v>
+        <v>0.01713671575881932</v>
       </c>
       <c r="T9">
-        <v>0.05045519076973905</v>
+        <v>0.01752502773314284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.946511333333333</v>
+        <v>3.477508</v>
       </c>
       <c r="H10">
-        <v>5.839534</v>
+        <v>10.432524</v>
       </c>
       <c r="I10">
-        <v>0.6512984402834356</v>
+        <v>0.6337545941407251</v>
       </c>
       <c r="J10">
-        <v>0.6512984402834355</v>
+        <v>0.6447358711858699</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.2227905</v>
+        <v>0.0418705</v>
       </c>
       <c r="N10">
-        <v>0.445581</v>
+        <v>0.083741</v>
       </c>
       <c r="O10">
-        <v>0.06739347301068223</v>
+        <v>0.01564249559892726</v>
       </c>
       <c r="P10">
-        <v>0.04596148333603414</v>
+        <v>0.01048299044324218</v>
       </c>
       <c r="Q10">
-        <v>0.433664233209</v>
+        <v>0.145604998714</v>
       </c>
       <c r="R10">
-        <v>2.601985399254</v>
+        <v>0.8736299922840001</v>
       </c>
       <c r="S10">
-        <v>0.04389326385714115</v>
+        <v>0.009913503449646225</v>
       </c>
       <c r="T10">
-        <v>0.02993464240987214</v>
+        <v>0.006758759976056897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.946511333333333</v>
+        <v>3.477508</v>
       </c>
       <c r="H11">
-        <v>5.839534</v>
+        <v>10.432524</v>
       </c>
       <c r="I11">
-        <v>0.6512984402834356</v>
+        <v>0.6337545941407251</v>
       </c>
       <c r="J11">
-        <v>0.6512984402834355</v>
+        <v>0.6447358711858699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4119903333333333</v>
+        <v>0.3201326666666667</v>
       </c>
       <c r="N11">
-        <v>1.235971</v>
+        <v>0.960398</v>
       </c>
       <c r="O11">
-        <v>0.1246258678451818</v>
+        <v>0.1195990931420972</v>
       </c>
       <c r="P11">
-        <v>0.1274898627192844</v>
+        <v>0.1202259712173118</v>
       </c>
       <c r="Q11">
-        <v>0.801943853057111</v>
+        <v>1.113263909394667</v>
       </c>
       <c r="R11">
-        <v>7.217494677513999</v>
+        <v>10.019375184552</v>
       </c>
       <c r="S11">
-        <v>0.08116863334653647</v>
+        <v>0.07579647473386861</v>
       </c>
       <c r="T11">
-        <v>0.08303394874101921</v>
+        <v>0.07751399629196083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.6369356666666667</v>
+        <v>0.280375</v>
       </c>
       <c r="H12">
-        <v>1.910807</v>
+        <v>0.56075</v>
       </c>
       <c r="I12">
-        <v>0.2131172827802134</v>
+        <v>0.05109663136136734</v>
       </c>
       <c r="J12">
-        <v>0.2131172827802134</v>
+        <v>0.03465466648027615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.51056</v>
+        <v>1.332201</v>
       </c>
       <c r="N12">
-        <v>4.53168</v>
+        <v>3.996603</v>
       </c>
       <c r="O12">
-        <v>0.4569399709189402</v>
+        <v>0.4977000102551081</v>
       </c>
       <c r="P12">
-        <v>0.4674407903484196</v>
+        <v>0.5003087024806611</v>
       </c>
       <c r="Q12">
-        <v>0.96212954064</v>
+        <v>0.373515855375</v>
       </c>
       <c r="R12">
-        <v>8.65916586576</v>
+        <v>2.24109513225</v>
       </c>
       <c r="S12">
-        <v>0.09738180499591428</v>
+        <v>0.025430793952554</v>
       </c>
       <c r="T12">
-        <v>0.0996197110996906</v>
+        <v>0.01733803122164702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.6369356666666667</v>
+        <v>0.280375</v>
       </c>
       <c r="H13">
-        <v>1.910807</v>
+        <v>0.56075</v>
       </c>
       <c r="I13">
-        <v>0.2131172827802134</v>
+        <v>0.05109663136136734</v>
       </c>
       <c r="J13">
-        <v>0.2131172827802134</v>
+        <v>0.03465466648027615</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.730397</v>
       </c>
       <c r="O13">
-        <v>0.2753123622535487</v>
+        <v>0.3400184143635273</v>
       </c>
       <c r="P13">
-        <v>0.281639244528509</v>
+        <v>0.341800619257677</v>
       </c>
       <c r="Q13">
-        <v>0.5796957444865556</v>
+        <v>0.2551783529583333</v>
       </c>
       <c r="R13">
-        <v>5.217261700379001</v>
+        <v>1.53107011775</v>
       </c>
       <c r="S13">
-        <v>0.0586738225592781</v>
+        <v>0.0173737955748098</v>
       </c>
       <c r="T13">
-        <v>0.06002219051818794</v>
+        <v>0.01184498646312665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.6369356666666667</v>
+        <v>0.280375</v>
       </c>
       <c r="H14">
-        <v>1.910807</v>
+        <v>0.56075</v>
       </c>
       <c r="I14">
-        <v>0.2131172827802134</v>
+        <v>0.05109663136136734</v>
       </c>
       <c r="J14">
-        <v>0.2131172827802134</v>
+        <v>0.03465466648027615</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.250344</v>
+        <v>0.07237833333333334</v>
       </c>
       <c r="N14">
-        <v>0.751032</v>
+        <v>0.217135</v>
       </c>
       <c r="O14">
-        <v>0.07572832597164705</v>
+        <v>0.02703998664034003</v>
       </c>
       <c r="P14">
-        <v>0.07746861906775286</v>
+        <v>0.02718171660110807</v>
       </c>
       <c r="Q14">
-        <v>0.159453022536</v>
+        <v>0.02029307520833333</v>
       </c>
       <c r="R14">
-        <v>1.435077202824</v>
+        <v>0.12175845125</v>
       </c>
       <c r="S14">
-        <v>0.01613901506057169</v>
+        <v>0.001381652229377752</v>
       </c>
       <c r="T14">
-        <v>0.01650990159645492</v>
+        <v>0.0009419733231727859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.6369356666666667</v>
+        <v>0.280375</v>
       </c>
       <c r="H15">
-        <v>1.910807</v>
+        <v>0.56075</v>
       </c>
       <c r="I15">
-        <v>0.2131172827802134</v>
+        <v>0.05109663136136734</v>
       </c>
       <c r="J15">
-        <v>0.2131172827802134</v>
+        <v>0.03465466648027615</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.2227905</v>
+        <v>0.0418705</v>
       </c>
       <c r="N15">
-        <v>0.445581</v>
+        <v>0.083741</v>
       </c>
       <c r="O15">
-        <v>0.06739347301068223</v>
+        <v>0.01564249559892726</v>
       </c>
       <c r="P15">
-        <v>0.04596148333603414</v>
+        <v>0.01048299044324218</v>
       </c>
       <c r="Q15">
-        <v>0.1419032156445</v>
+        <v>0.0117394414375</v>
       </c>
       <c r="R15">
-        <v>0.8514192938670001</v>
+        <v>0.04695776575</v>
       </c>
       <c r="S15">
-        <v>0.01436271384515824</v>
+        <v>0.0007992788311901972</v>
       </c>
       <c r="T15">
-        <v>0.009795186441123654</v>
+        <v>0.0003632845375264801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.280375</v>
+      </c>
+      <c r="H16">
+        <v>0.56075</v>
+      </c>
+      <c r="I16">
+        <v>0.05109663136136734</v>
+      </c>
+      <c r="J16">
+        <v>0.03465466648027615</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3201326666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.960398</v>
+      </c>
+      <c r="O16">
+        <v>0.1195990931420972</v>
+      </c>
+      <c r="P16">
+        <v>0.1202259712173118</v>
+      </c>
+      <c r="Q16">
+        <v>0.08975719641666667</v>
+      </c>
+      <c r="R16">
+        <v>0.5385431785</v>
+      </c>
+      <c r="S16">
+        <v>0.006111110773435578</v>
+      </c>
+      <c r="T16">
+        <v>0.00416639093480322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.324053666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.972161</v>
+      </c>
+      <c r="I17">
+        <v>0.2413006941001637</v>
+      </c>
+      <c r="J17">
+        <v>0.2454817916379139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.332201</v>
+      </c>
+      <c r="N17">
+        <v>3.996603</v>
+      </c>
+      <c r="O17">
+        <v>0.4977000102551081</v>
+      </c>
+      <c r="P17">
+        <v>0.5003087024806611</v>
+      </c>
+      <c r="Q17">
+        <v>1.763905618787</v>
+      </c>
+      <c r="R17">
+        <v>15.875150569083</v>
+      </c>
+      <c r="S17">
+        <v>0.1200953579282162</v>
+      </c>
+      <c r="T17">
+        <v>0.1228166766569927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.324053666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.972161</v>
+      </c>
+      <c r="I18">
+        <v>0.2413006941001637</v>
+      </c>
+      <c r="J18">
+        <v>0.2454817916379139</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9101323333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.730397</v>
+      </c>
+      <c r="O18">
+        <v>0.3400184143635273</v>
+      </c>
+      <c r="P18">
+        <v>0.341800619257677</v>
+      </c>
+      <c r="Q18">
+        <v>1.205064053101889</v>
+      </c>
+      <c r="R18">
+        <v>10.845576477917</v>
+      </c>
+      <c r="S18">
+        <v>0.08204667939275621</v>
+      </c>
+      <c r="T18">
+        <v>0.083905828398323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.324053666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.972161</v>
+      </c>
+      <c r="I19">
+        <v>0.2413006941001637</v>
+      </c>
+      <c r="J19">
+        <v>0.2454817916379139</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07237833333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.217135</v>
+      </c>
+      <c r="O19">
+        <v>0.02703998664034003</v>
+      </c>
+      <c r="P19">
+        <v>0.02718171660110807</v>
+      </c>
+      <c r="Q19">
+        <v>0.09583279763722223</v>
+      </c>
+      <c r="R19">
+        <v>0.8624951787349999</v>
+      </c>
+      <c r="S19">
+        <v>0.006524767544773204</v>
+      </c>
+      <c r="T19">
+        <v>0.006672616491034037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.6369356666666667</v>
-      </c>
-      <c r="H16">
-        <v>1.910807</v>
-      </c>
-      <c r="I16">
-        <v>0.2131172827802134</v>
-      </c>
-      <c r="J16">
-        <v>0.2131172827802134</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4119903333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.235971</v>
-      </c>
-      <c r="O16">
-        <v>0.1246258678451818</v>
-      </c>
-      <c r="P16">
-        <v>0.1274898627192844</v>
-      </c>
-      <c r="Q16">
-        <v>0.2624113376218888</v>
-      </c>
-      <c r="R16">
-        <v>2.361702038597</v>
-      </c>
-      <c r="S16">
-        <v>0.02655992631929111</v>
-      </c>
-      <c r="T16">
-        <v>0.02717029312475632</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.324053666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.972161</v>
+      </c>
+      <c r="I20">
+        <v>0.2413006941001637</v>
+      </c>
+      <c r="J20">
+        <v>0.2454817916379139</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0418705</v>
+      </c>
+      <c r="N20">
+        <v>0.083741</v>
+      </c>
+      <c r="O20">
+        <v>0.01564249559892726</v>
+      </c>
+      <c r="P20">
+        <v>0.01048299044324218</v>
+      </c>
+      <c r="Q20">
+        <v>0.05543878905016666</v>
+      </c>
+      <c r="R20">
+        <v>0.332632734301</v>
+      </c>
+      <c r="S20">
+        <v>0.003774545045479905</v>
+      </c>
+      <c r="T20">
+        <v>0.00257338327573022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.324053666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.972161</v>
+      </c>
+      <c r="I21">
+        <v>0.2413006941001637</v>
+      </c>
+      <c r="J21">
+        <v>0.2454817916379139</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3201326666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.960398</v>
+      </c>
+      <c r="O21">
+        <v>0.1195990931420972</v>
+      </c>
+      <c r="P21">
+        <v>0.1202259712173118</v>
+      </c>
+      <c r="Q21">
+        <v>0.4238728311197778</v>
+      </c>
+      <c r="R21">
+        <v>3.814855480078</v>
+      </c>
+      <c r="S21">
+        <v>0.02885934418893819</v>
+      </c>
+      <c r="T21">
+        <v>0.02951328681583396</v>
       </c>
     </row>
   </sheetData>
